--- a/test_videos_with_labels/done/GX010101_labels.xlsx
+++ b/test_videos_with_labels/done/GX010101_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DDE01E-32A6-47B9-960A-8DA1C2010A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33CFAE-F345-4426-97EC-62EC8CCE9E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
